--- a/data/SSD_CDS.xlsx
+++ b/data/SSD_CDS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse Work PC\Documents\Rutgers\Adminstrative Documents\Job Market\Academic Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EF9912-F5B4-49E0-AE5C-822C2B70218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9791E70D-CECF-4298-AB75-D64704252ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>DMS</t>
+    <t>SSD</t>
   </si>
 </sst>
 </file>
@@ -431,15 +431,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -520,7 +521,7 @@
         <v>37529</v>
       </c>
       <c r="B12">
-        <v>0.18856114115052139</v>
+        <v>0.14200343615821079</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -562,7 +563,7 @@
         <v>37711</v>
       </c>
       <c r="B18">
-        <v>2.853716052003967E-2</v>
+        <v>3.4453567888967918E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -570,7 +571,7 @@
         <v>37741</v>
       </c>
       <c r="B19">
-        <v>-4.8875020574785488E-2</v>
+        <v>-5.5677953625615367E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -578,7 +579,7 @@
         <v>37771</v>
       </c>
       <c r="B20">
-        <v>8.4177263059417844E-3</v>
+        <v>3.1596488985554859E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -586,7 +587,7 @@
         <v>37802</v>
       </c>
       <c r="B21">
-        <v>4.9860675652287828E-2</v>
+        <v>3.1764135204536408E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -722,7 +723,7 @@
         <v>38321</v>
       </c>
       <c r="B38">
-        <v>4.4876200418498033E-2</v>
+        <v>4.4794022885418013E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -746,7 +747,7 @@
         <v>38411</v>
       </c>
       <c r="B41">
-        <v>7.3248815186687966E-2</v>
+        <v>7.3087728545139036E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -754,7 +755,7 @@
         <v>38442</v>
       </c>
       <c r="B42">
-        <v>-0.2354699768773823</v>
+        <v>-0.23353044697992609</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -778,7 +779,7 @@
         <v>38533</v>
       </c>
       <c r="B45">
-        <v>-9.8902518092210373E-2</v>
+        <v>-9.704731558160011E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -786,7 +787,7 @@
         <v>38562</v>
       </c>
       <c r="B46">
-        <v>-1.31193160537916E-2</v>
+        <v>-1.3011924959425641E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -794,7 +795,7 @@
         <v>38595</v>
       </c>
       <c r="B47">
-        <v>5.087639401565492E-2</v>
+        <v>4.9657260937253873E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -810,7 +811,7 @@
         <v>38656</v>
       </c>
       <c r="B49">
-        <v>4.1905852170762807E-2</v>
+        <v>4.1737761762189997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -866,7 +867,7 @@
         <v>38868</v>
       </c>
       <c r="B56">
-        <v>9.6643271879267856E-2</v>
+        <v>9.5602548519657216E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -938,7 +939,7 @@
         <v>39141</v>
       </c>
       <c r="B65">
-        <v>-4.5574210905747328E-2</v>
+        <v>-4.3655561634834049E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -946,7 +947,7 @@
         <v>39171</v>
       </c>
       <c r="B66">
-        <v>-7.9520223111515159E-2</v>
+        <v>-8.1992530803822822E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -962,7 +963,7 @@
         <v>39233</v>
       </c>
       <c r="B68">
-        <v>6.8792097549260547E-3</v>
+        <v>7.5112544194156786E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -970,7 +971,7 @@
         <v>39262</v>
       </c>
       <c r="B69">
-        <v>1.1780040137915639E-2</v>
+        <v>1.087221591966045E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -978,7 +979,7 @@
         <v>39294</v>
       </c>
       <c r="B70">
-        <v>-0.170146884626872</v>
+        <v>-0.16850574394440901</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -986,7 +987,7 @@
         <v>39325</v>
       </c>
       <c r="B71">
-        <v>2.7752040303435602E-2</v>
+        <v>2.7795741135660301E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1058,7 +1059,7 @@
         <v>39598</v>
       </c>
       <c r="B80">
-        <v>4.1076800871660421E-2</v>
+        <v>3.7804483344180337E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1074,7 +1075,7 @@
         <v>39660</v>
       </c>
       <c r="B82">
-        <v>-1.025980207090108E-2</v>
+        <v>-5.7452121343344528E-3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1082,7 +1083,7 @@
         <v>39689</v>
       </c>
       <c r="B83">
-        <v>-1.6443051799322358E-2</v>
+        <v>-2.1734019026089711E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1090,7 +1091,7 @@
         <v>39721</v>
       </c>
       <c r="B84">
-        <v>-6.3760405208764845E-2</v>
+        <v>-5.9913873768985673E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1098,7 +1099,7 @@
         <v>39752</v>
       </c>
       <c r="B85">
-        <v>0.19293794546600071</v>
+        <v>0.188208520361165</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1106,7 +1107,7 @@
         <v>39780</v>
       </c>
       <c r="B86">
-        <v>7.4168039884915216E-2</v>
+        <v>6.827542465373948E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1114,7 +1115,7 @@
         <v>39813</v>
       </c>
       <c r="B87">
-        <v>-0.1415830503988465</v>
+        <v>-0.14382336696050169</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1122,7 +1123,7 @@
         <v>39843</v>
       </c>
       <c r="B88">
-        <v>6.9205921720659688E-2</v>
+        <v>6.9889262897853952E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1130,7 +1131,7 @@
         <v>39871</v>
       </c>
       <c r="B89">
-        <v>6.3698456533932496E-2</v>
+        <v>6.5822285183019844E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1138,7 +1139,7 @@
         <v>39903</v>
       </c>
       <c r="B90">
-        <v>4.1367439218279567E-2</v>
+        <v>3.7152224488639092E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1146,7 +1147,7 @@
         <v>39933</v>
       </c>
       <c r="B91">
-        <v>-3.9655157346953303E-2</v>
+        <v>-3.7334653062835732E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1154,7 +1155,7 @@
         <v>39962</v>
       </c>
       <c r="B92">
-        <v>-2.0928593073170701E-2</v>
+        <v>-2.1934775772478529E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1162,7 +1163,7 @@
         <v>39994</v>
       </c>
       <c r="B93">
-        <v>5.5632372948847417E-2</v>
+        <v>5.358672442314652E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1170,7 +1171,7 @@
         <v>40025</v>
       </c>
       <c r="B94">
-        <v>-7.9524874430594444E-2</v>
+        <v>-7.9490592503852375E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1178,7 +1179,7 @@
         <v>40056</v>
       </c>
       <c r="B95">
-        <v>2.9768461994720798E-2</v>
+        <v>3.0981108360163479E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1186,7 +1187,7 @@
         <v>40086</v>
       </c>
       <c r="B96">
-        <v>3.3516256362512258E-2</v>
+        <v>3.5607213249702667E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1202,7 +1203,7 @@
         <v>40147</v>
       </c>
       <c r="B98">
-        <v>4.6063530001735853E-2</v>
+        <v>4.6145787010186352E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1378,7 +1379,7 @@
         <v>40816</v>
       </c>
       <c r="B120">
-        <v>-5.3192382911071763E-2</v>
+        <v>-5.540297686022716E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1818,7 +1819,7 @@
         <v>42489</v>
       </c>
       <c r="B175">
-        <v>2.471625419075299E-2</v>
+        <v>2.4540523309063231E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -2034,7 +2035,7 @@
         <v>43312</v>
       </c>
       <c r="B202">
-        <v>-1.19548672841724E-2</v>
+        <v>-2.0500796221520859E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -2042,7 +2043,7 @@
         <v>43343</v>
       </c>
       <c r="B203">
-        <v>-1.335549885320873E-2</v>
+        <v>-8.5622753369916788E-3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -2050,7 +2051,7 @@
         <v>43371</v>
       </c>
       <c r="B204">
-        <v>-8.1465796777298038E-3</v>
+        <v>-7.7762062386555961E-3</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -2058,7 +2059,7 @@
         <v>43404</v>
       </c>
       <c r="B205">
-        <v>-8.9666376798475125E-2</v>
+        <v>-8.2998242333865879E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -2066,7 +2067,7 @@
         <v>43434</v>
       </c>
       <c r="B206">
-        <v>-6.6835945215308737E-2</v>
+        <v>-6.8039470079538811E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -2074,7 +2075,7 @@
         <v>43465</v>
       </c>
       <c r="B207">
-        <v>-2.288729077770946E-4</v>
+        <v>-1.6281413604064401E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -2082,7 +2083,7 @@
         <v>43496</v>
       </c>
       <c r="B208">
-        <v>1.7717781348830518E-2</v>
+        <v>3.5338147360052322E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -2090,7 +2091,7 @@
         <v>43524</v>
       </c>
       <c r="B209">
-        <v>1.81629956004806E-2</v>
+        <v>3.2311913122180597E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -2098,7 +2099,7 @@
         <v>43553</v>
       </c>
       <c r="B210">
-        <v>6.1302470371323303E-2</v>
+        <v>5.8128320688908969E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -2106,7 +2107,7 @@
         <v>43585</v>
       </c>
       <c r="B211">
-        <v>1.457504725576457E-2</v>
+        <v>2.2810098705751819E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -2114,7 +2115,7 @@
         <v>43616</v>
       </c>
       <c r="B212">
-        <v>-4.5883249733757972E-2</v>
+        <v>-4.9860718927033212E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -2122,7 +2123,7 @@
         <v>43644</v>
       </c>
       <c r="B213">
-        <v>3.2169584923752458E-2</v>
+        <v>2.990523139750241E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -2194,7 +2195,7 @@
         <v>43921</v>
       </c>
       <c r="B222">
-        <v>2.4272384992087729E-2</v>
+        <v>2.3517257588701209E-2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -2202,7 +2203,7 @@
         <v>43951</v>
       </c>
       <c r="B223">
-        <v>0.1190869894325081</v>
+        <v>0.11884213773735371</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -2218,7 +2219,7 @@
         <v>44012</v>
       </c>
       <c r="B225">
-        <v>-8.0435634729540448E-2</v>
+        <v>-8.0370107960096818E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -2226,7 +2227,7 @@
         <v>44043</v>
       </c>
       <c r="B226">
-        <v>8.9947728355173479E-2</v>
+        <v>8.8653886549407618E-2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -2234,7 +2235,7 @@
         <v>44074</v>
       </c>
       <c r="B227">
-        <v>-1.683655035978451E-2</v>
+        <v>-1.6248606744852609E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -2242,7 +2243,7 @@
         <v>44104</v>
       </c>
       <c r="B228">
-        <v>-4.0297358862663717E-2</v>
+        <v>-4.3590935486754273E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -2250,7 +2251,7 @@
         <v>44134</v>
       </c>
       <c r="B229">
-        <v>9.8100257437163836E-3</v>
+        <v>1.1359668158807399E-2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -2258,7 +2259,7 @@
         <v>44165</v>
       </c>
       <c r="B230">
-        <v>2.364162274199497E-2</v>
+        <v>1.8853798589539419E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -2266,7 +2267,103 @@
         <v>44196</v>
       </c>
       <c r="B231">
-        <v>7.3476122301258329E-2</v>
+        <v>7.3976386161182614E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B232">
+        <v>1.023640821955971E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B233">
+        <v>9.0682419567015685E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B234">
+        <v>-4.4689023254423171E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B235">
+        <v>1.7652325248135151E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B236">
+        <v>1.2142553017812771E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B237">
+        <v>3.4352320730842059E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B238">
+        <v>-4.721817998621116E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B239">
+        <v>-1.6209740387514309E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B240">
+        <v>3.7761984900447333E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B241">
+        <v>2.9822591026699999E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B242">
+        <v>-7.527781553960336E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B243">
+        <v>3.1338824567149932E-2</v>
       </c>
     </row>
   </sheetData>
